--- a/Assignement1/test3-TransitionTable.xlsx
+++ b/Assignement1/test3-TransitionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Desktop\02135-Introduction-to-Cyber-Systems-2018\Assignement1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{04DB176D-A981-4058-977C-55B3A846D379}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B716A5-FD1C-4142-ABF4-999D549FC9C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C30AC5B7-65D7-4891-93F0-524E7078BAF0}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>INITIALIZE</t>
   </si>
@@ -50,12 +50,6 @@
     <t>CHECK_KEYS</t>
   </si>
   <si>
-    <t>DEC_TIMER==0</t>
-  </si>
-  <si>
-    <t>OPEN_HATCH</t>
-  </si>
-  <si>
     <t>KEY1+KEY2 !=2  &amp;&amp; DEC_TIMER&gt;0</t>
   </si>
   <si>
@@ -86,22 +80,34 @@
     <t>KEY_TIMER--</t>
   </si>
   <si>
-    <t>GUESS_PASSWORD=LAUNCH_PASSWORD</t>
-  </si>
-  <si>
-    <t>HATCH_PASSWORD=True</t>
-  </si>
-  <si>
-    <t>LAUNCH_PASSWORD=True</t>
-  </si>
-  <si>
-    <t>KEY1+KEY2 ==2 &amp;&amp; DEC_TIMER&gt;0  &amp;&amp; HATCH_PASSWORD=True</t>
-  </si>
-  <si>
-    <t>KEY1+KEY2 ==2 &amp;&amp; DEC_TIMER&gt;0 &amp;&amp; LAUNCH_PASSWORD=True</t>
-  </si>
-  <si>
-    <t>LAUNCH_COUNT++, HATCH_OPEN=0, LAUNCH_PASSWORD = False, HATCH_PASSWORD=false</t>
+    <t>SETPASS</t>
+  </si>
+  <si>
+    <t>LAUNCH_PASSWORD_ACTIVE=True</t>
+  </si>
+  <si>
+    <t>HATCH_PASSWORD_ACTIVE=True</t>
+  </si>
+  <si>
+    <t>KEY1+KEY2 ==2 &amp;&amp; DEC_TIMER&gt;0 &amp;&amp; LAUNCH_PASSWORD_ACTIVE=True &amp;&amp; HATCH_OPEN==TRUE</t>
+  </si>
+  <si>
+    <t>LAUNCH_COUNT++, HATCH_OPEN=0, LAUNCH_PASSWORD = False, HATCH_PASSWORD=false RESET_ALL_TIMERS</t>
+  </si>
+  <si>
+    <t>KEY_COUNTDOWN==0</t>
+  </si>
+  <si>
+    <t>HATCH_PASSWORD_ACTIVE=False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEY1+KEY2 ==2 &amp;&amp; DEC_TIMER&gt;0  &amp;&amp; ((HATCH_PASSWORD_ACTIVE=True) or (LAUNC_PASSWORD_ACTIVE==TRUE and HATCH_PASSWORD_ACTIVE==FALSE) </t>
+  </si>
+  <si>
+    <t>GUESS_PASSWORD=LAUNCH_PASSWORD &amp;&amp; HATCH_PASSWORD_ACTIVE==FALSE</t>
+  </si>
+  <si>
+    <t>GUESS_PASSWORD=LAUNCH_PASSWORD &amp;&amp; HATCH_PASSWORD_ACTIVE==TRUE</t>
   </si>
 </sst>
 </file>
@@ -453,18 +459,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034B6F71-9A39-4E87-9806-F057304A1757}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="79.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="139.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="102" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -478,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -491,47 +497,33 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -539,7 +531,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -547,51 +539,76 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
